--- a/Bitácoras_excel/Bitácora_9.xlsx
+++ b/Bitácoras_excel/Bitácora_9.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EvidenciasParaBitacoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EvidenciasParaBitacoras\Bitácoras_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="8448" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -3288,6 +3288,105 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="82" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="73" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3300,6 +3399,45 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3351,77 +3489,23 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3477,12 +3561,93 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3501,172 +3666,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="73" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3710,7 +3710,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
+              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3944,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E00CC92-0015-4CE3-A33B-B1A9AF53B1A4}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
+              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4774,56 +4774,56 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="209"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="166"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="169"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="163"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4835,45 +4835,45 @@
       <c r="C8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="170" t="s">
+      <c r="D8" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="171"/>
+      <c r="E8" s="217"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="220"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="223"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="201"/>
     </row>
     <row r="12" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="193"/>
       <c r="F12" s="1"/>
       <c r="G12" s="39"/>
     </row>
@@ -4884,84 +4884,84 @@
       <c r="E13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="192"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="183"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="193" t="s">
+      <c r="B15" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="195"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="186"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="195"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="186"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="199" t="s">
+      <c r="B17" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="196"/>
     </row>
     <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="195"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="186"/>
     </row>
     <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="193" t="s">
+      <c r="B19" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="195"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="186"/>
     </row>
     <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="196" t="s">
+      <c r="B20" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="197"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="198"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="189"/>
     </row>
     <row r="21" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="193"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="178" t="s">
+      <c r="B22" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179" t="s">
+      <c r="C22" s="200"/>
+      <c r="D22" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="180"/>
+      <c r="E22" s="201"/>
     </row>
     <row r="23" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="181"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="183"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
@@ -4970,10 +4970,10 @@
       <c r="C24" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="184" t="s">
+      <c r="D24" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="185"/>
+      <c r="E24" s="206"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -4983,8 +4983,8 @@
       <c r="C25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="186"/>
-      <c r="E25" s="187"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="198"/>
     </row>
     <row r="26" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="65" t="s">
@@ -4993,8 +4993,8 @@
       <c r="C26" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="186"/>
-      <c r="E26" s="187"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="198"/>
     </row>
     <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="67" t="s">
@@ -5003,8 +5003,8 @@
       <c r="C27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="186"/>
-      <c r="E27" s="187"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="77" t="s">
@@ -5013,8 +5013,8 @@
       <c r="C28" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="186"/>
-      <c r="E28" s="187"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="198"/>
     </row>
     <row r="29" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="77" t="s">
@@ -5023,10 +5023,10 @@
       <c r="C29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="186" t="s">
+      <c r="D29" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="187" t="s">
+      <c r="E29" s="198" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5037,10 +5037,10 @@
       <c r="C30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="186" t="s">
+      <c r="D30" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="187" t="s">
+      <c r="E30" s="198" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5051,8 +5051,8 @@
       <c r="C31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="186"/>
-      <c r="E31" s="187"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
     </row>
     <row r="32" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="77" t="s">
@@ -5061,10 +5061,10 @@
       <c r="C32" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="D32" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="187" t="s">
+      <c r="E32" s="198" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5075,8 +5075,8 @@
       <c r="C33" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="186"/>
-      <c r="E33" s="187"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
     </row>
     <row r="34" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="77" t="s">
@@ -5085,8 +5085,8 @@
       <c r="C34" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="186"/>
-      <c r="E34" s="187"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
     </row>
     <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B35" s="77" t="s">
@@ -5095,8 +5095,8 @@
       <c r="C35" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="186"/>
-      <c r="E35" s="187"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="198"/>
     </row>
     <row r="36" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="77" t="s">
@@ -5105,8 +5105,8 @@
       <c r="C36" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="186"/>
-      <c r="E36" s="187"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="198"/>
     </row>
     <row r="37" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="77" t="s">
@@ -5115,8 +5115,8 @@
       <c r="C37" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="186"/>
-      <c r="E37" s="187"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="198"/>
     </row>
     <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B38" s="77" t="s">
@@ -5125,8 +5125,8 @@
       <c r="C38" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="187"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="198"/>
     </row>
     <row r="39" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B39" s="77" t="s">
@@ -5135,8 +5135,8 @@
       <c r="C39" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="186"/>
-      <c r="E39" s="187"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="198"/>
     </row>
     <row r="40" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B40" s="77" t="s">
@@ -5145,8 +5145,8 @@
       <c r="C40" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="187"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="198"/>
     </row>
     <row r="41" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B41" s="77" t="s">
@@ -5155,8 +5155,8 @@
       <c r="C41" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="186"/>
-      <c r="E41" s="187"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="198"/>
     </row>
     <row r="42" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B42" s="77" t="s">
@@ -5165,8 +5165,8 @@
       <c r="C42" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="198"/>
     </row>
     <row r="43" spans="2:5" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B43" s="77" t="s">
@@ -5175,10 +5175,10 @@
       <c r="C43" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="186" t="s">
+      <c r="D43" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="187" t="s">
+      <c r="E43" s="198" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5189,8 +5189,8 @@
       <c r="C44" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="186"/>
-      <c r="E44" s="187"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="198"/>
     </row>
     <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="77" t="s">
@@ -5199,8 +5199,8 @@
       <c r="C45" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="186"/>
-      <c r="E45" s="187"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="198"/>
     </row>
     <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="77" t="s">
@@ -5209,8 +5209,8 @@
       <c r="C46" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="186"/>
-      <c r="E46" s="187"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="198"/>
     </row>
     <row r="47" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="77" t="s">
@@ -5219,10 +5219,10 @@
       <c r="C47" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="186" t="s">
+      <c r="D47" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="187" t="s">
+      <c r="E47" s="198" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5233,8 +5233,8 @@
       <c r="C48" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="186"/>
-      <c r="E48" s="187"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="198"/>
     </row>
     <row r="49" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="77" t="s">
@@ -5243,10 +5243,10 @@
       <c r="C49" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="186" t="s">
+      <c r="D49" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="187" t="s">
+      <c r="E49" s="198" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5257,10 +5257,10 @@
       <c r="C50" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="186" t="s">
+      <c r="D50" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="187" t="s">
+      <c r="E50" s="198" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5271,10 +5271,10 @@
       <c r="C51" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="186" t="s">
+      <c r="D51" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="187" t="s">
+      <c r="E51" s="198" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5285,8 +5285,8 @@
       <c r="C52" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="186"/>
-      <c r="E52" s="187"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="198"/>
     </row>
     <row r="53" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B53" s="77" t="s">
@@ -5295,8 +5295,8 @@
       <c r="C53" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="186"/>
-      <c r="E53" s="187"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="198"/>
     </row>
     <row r="54" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B54" s="77" t="s">
@@ -5305,8 +5305,8 @@
       <c r="C54" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="186"/>
-      <c r="E54" s="187"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="198"/>
     </row>
     <row r="55" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B55" s="77" t="s">
@@ -5315,8 +5315,8 @@
       <c r="C55" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="186"/>
-      <c r="E55" s="187"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="198"/>
     </row>
     <row r="56" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B56" s="78" t="s">
@@ -5325,8 +5325,8 @@
       <c r="C56" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="186"/>
-      <c r="E56" s="187"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="198"/>
     </row>
     <row r="57" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="79" t="s">
@@ -5335,10 +5335,10 @@
       <c r="C57" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="188" t="s">
+      <c r="D57" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="189" t="s">
+      <c r="E57" s="180" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5356,6 +5356,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B19:E19"/>
@@ -5372,44 +5410,6 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5421,8 +5421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5504,14 +5504,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="209"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -5533,14 +5533,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="212"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5562,14 +5562,14 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="163"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="209"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
@@ -5591,14 +5591,14 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="166"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="212"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
@@ -5620,14 +5620,14 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="163"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5732,13 +5732,13 @@
       <c r="B11" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="282" t="s">
+      <c r="C11" s="177" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="259">
+      <c r="D11" s="158">
         <v>1077722640</v>
       </c>
-      <c r="E11" s="283">
+      <c r="E11" s="178">
         <v>3162745203</v>
       </c>
       <c r="F11" s="155" t="s">
@@ -5828,11 +5828,11 @@
       </c>
       <c r="C14" s="117"/>
       <c r="D14" s="117"/>
-      <c r="E14" s="217" t="s">
+      <c r="E14" s="245" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="218"/>
-      <c r="G14" s="219"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="247"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5878,10 +5878,10 @@
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="2:26" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="257" t="s">
+      <c r="B16" s="248" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="258"/>
+      <c r="C16" s="249"/>
       <c r="D16" s="125" t="s">
         <v>47</v>
       </c>
@@ -5904,20 +5904,20 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="228" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="256"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="254">
+      <c r="E17" s="157">
         <v>9</v>
       </c>
       <c r="F17" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="281">
+      <c r="G17" s="176">
         <v>45723</v>
       </c>
       <c r="H17" s="20"/>
@@ -5987,17 +5987,17 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="255" t="s">
+      <c r="B20" s="228" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="256"/>
-      <c r="D20" s="261" t="s">
+      <c r="C20" s="229"/>
+      <c r="D20" s="160" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="260">
+      <c r="E20" s="159">
         <v>3168343728</v>
       </c>
-      <c r="F20" s="262" t="s">
+      <c r="F20" s="161" t="s">
         <v>197</v>
       </c>
       <c r="G20" s="118"/>
@@ -6042,14 +6042,14 @@
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="236" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="210"/>
+      <c r="C22" s="237"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="237"/>
+      <c r="F22" s="237"/>
+      <c r="G22" s="238"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -6081,7 +6081,7 @@
       <c r="E23" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="279" t="s">
+      <c r="F23" s="174" t="s">
         <v>232</v>
       </c>
       <c r="G23" s="118"/>
@@ -6228,10 +6228,10 @@
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="211" t="s">
+      <c r="F28" s="239" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="212"/>
+      <c r="G28" s="240"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
@@ -6258,8 +6258,8 @@
       <c r="E29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="211"/>
-      <c r="G29" s="212"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="240"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
@@ -6350,7 +6350,7 @@
       <c r="F32" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="280" t="s">
+      <c r="G32" s="175" t="s">
         <v>233</v>
       </c>
       <c r="H32" s="18"/>
@@ -6563,18 +6563,18 @@
       <c r="Y38" s="18"/>
     </row>
     <row r="39" spans="2:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="265" t="s">
+      <c r="B39" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="266" t="s">
+      <c r="C39" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="268" t="s">
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="269" t="s">
+      <c r="G39" s="168" t="s">
         <v>145</v>
       </c>
       <c r="H39" s="18"/>
@@ -6597,20 +6597,20 @@
       <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="273" t="s">
+      <c r="B40" s="226" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="274"/>
-      <c r="D40" s="276">
+      <c r="C40" s="227"/>
+      <c r="D40" s="171">
         <v>45709</v>
       </c>
-      <c r="E40" s="276">
+      <c r="E40" s="171">
         <v>45723</v>
       </c>
-      <c r="F40" s="275" t="s">
+      <c r="F40" s="170" t="s">
         <v>216</v>
       </c>
-      <c r="G40" s="270"/>
+      <c r="G40" s="169"/>
       <c r="H40" s="20"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -6631,20 +6631,20 @@
       <c r="Y40" s="18"/>
     </row>
     <row r="41" spans="2:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="273" t="s">
+      <c r="B41" s="226" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="274"/>
-      <c r="D41" s="277">
+      <c r="C41" s="227"/>
+      <c r="D41" s="172">
         <v>45709</v>
       </c>
-      <c r="E41" s="277">
+      <c r="E41" s="172">
         <v>45723</v>
       </c>
-      <c r="F41" s="275" t="s">
+      <c r="F41" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="G41" s="270"/>
+      <c r="G41" s="169"/>
       <c r="H41" s="20"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -6665,20 +6665,20 @@
       <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="2:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="271" t="s">
+      <c r="B42" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="272"/>
-      <c r="D42" s="277">
+      <c r="C42" s="225"/>
+      <c r="D42" s="172">
         <v>45709</v>
       </c>
-      <c r="E42" s="277">
+      <c r="E42" s="172">
         <v>45723</v>
       </c>
-      <c r="F42" s="275" t="s">
+      <c r="F42" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="270"/>
+      <c r="G42" s="169"/>
       <c r="H42" s="20"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -6699,20 +6699,20 @@
       <c r="Y42" s="18"/>
     </row>
     <row r="43" spans="2:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="273" t="s">
+      <c r="B43" s="226" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="274"/>
-      <c r="D43" s="277">
+      <c r="C43" s="227"/>
+      <c r="D43" s="172">
         <v>45709</v>
       </c>
-      <c r="E43" s="277">
+      <c r="E43" s="172">
         <v>45723</v>
       </c>
-      <c r="F43" s="275" t="s">
+      <c r="F43" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="G43" s="270"/>
+      <c r="G43" s="169"/>
       <c r="H43" s="20"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -6733,20 +6733,20 @@
       <c r="Y43" s="18"/>
     </row>
     <row r="44" spans="2:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="273" t="s">
+      <c r="B44" s="226" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="274"/>
-      <c r="D44" s="277">
+      <c r="C44" s="227"/>
+      <c r="D44" s="172">
         <v>45709</v>
       </c>
-      <c r="E44" s="277">
+      <c r="E44" s="172">
         <v>45723</v>
       </c>
-      <c r="F44" s="275" t="s">
+      <c r="F44" s="170" t="s">
         <v>226</v>
       </c>
-      <c r="G44" s="270"/>
+      <c r="G44" s="169"/>
       <c r="H44" s="20"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -6767,20 +6767,20 @@
       <c r="Y44" s="18"/>
     </row>
     <row r="45" spans="2:26" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="271" t="s">
+      <c r="B45" s="224" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="272"/>
-      <c r="D45" s="277">
+      <c r="C45" s="225"/>
+      <c r="D45" s="172">
         <v>45709</v>
       </c>
-      <c r="E45" s="277">
+      <c r="E45" s="172">
         <v>45723</v>
       </c>
-      <c r="F45" s="275" t="s">
+      <c r="F45" s="170" t="s">
         <v>227</v>
       </c>
-      <c r="G45" s="270"/>
+      <c r="G45" s="169"/>
       <c r="H45" s="20"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
@@ -6801,20 +6801,20 @@
       <c r="Y45" s="18"/>
     </row>
     <row r="46" spans="2:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="271" t="s">
+      <c r="B46" s="224" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="272"/>
-      <c r="D46" s="277">
+      <c r="C46" s="225"/>
+      <c r="D46" s="172">
         <v>45709</v>
       </c>
-      <c r="E46" s="277">
+      <c r="E46" s="172">
         <v>45723</v>
       </c>
-      <c r="F46" s="275" t="s">
+      <c r="F46" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="G46" s="270"/>
+      <c r="G46" s="169"/>
       <c r="H46" s="20"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -6835,20 +6835,20 @@
       <c r="Y46" s="18"/>
     </row>
     <row r="47" spans="2:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="273" t="s">
+      <c r="B47" s="226" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="274"/>
-      <c r="D47" s="277">
+      <c r="C47" s="227"/>
+      <c r="D47" s="172">
         <v>45709</v>
       </c>
-      <c r="E47" s="277">
+      <c r="E47" s="172">
         <v>45723</v>
       </c>
-      <c r="F47" s="275" t="s">
+      <c r="F47" s="170" t="s">
         <v>228</v>
       </c>
-      <c r="G47" s="270"/>
+      <c r="G47" s="169"/>
       <c r="H47" s="20"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
@@ -6869,20 +6869,20 @@
       <c r="Y47" s="18"/>
     </row>
     <row r="48" spans="2:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="273" t="s">
+      <c r="B48" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="274"/>
-      <c r="D48" s="277">
+      <c r="C48" s="227"/>
+      <c r="D48" s="172">
         <v>45709</v>
       </c>
-      <c r="E48" s="277">
+      <c r="E48" s="172">
         <v>45723</v>
       </c>
-      <c r="F48" s="275" t="s">
+      <c r="F48" s="170" t="s">
         <v>231</v>
       </c>
-      <c r="G48" s="270"/>
+      <c r="G48" s="169"/>
       <c r="H48" s="20"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6903,20 +6903,20 @@
       <c r="Y48" s="18"/>
     </row>
     <row r="49" spans="2:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="271" t="s">
+      <c r="B49" s="224" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="272"/>
-      <c r="D49" s="277">
+      <c r="C49" s="225"/>
+      <c r="D49" s="172">
         <v>45709</v>
       </c>
-      <c r="E49" s="277">
+      <c r="E49" s="172">
         <v>45723</v>
       </c>
-      <c r="F49" s="275" t="s">
+      <c r="F49" s="170" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="270"/>
+      <c r="G49" s="169"/>
       <c r="H49" s="20"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -6937,20 +6937,20 @@
       <c r="Y49" s="18"/>
     </row>
     <row r="50" spans="2:26" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="224" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="272"/>
-      <c r="D50" s="277">
+      <c r="C50" s="225"/>
+      <c r="D50" s="172">
         <v>45709</v>
       </c>
-      <c r="E50" s="277">
+      <c r="E50" s="172">
         <v>45723</v>
       </c>
-      <c r="F50" s="275" t="s">
+      <c r="F50" s="170" t="s">
         <v>221</v>
       </c>
-      <c r="G50" s="270"/>
+      <c r="G50" s="169"/>
       <c r="H50" s="20"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -6971,20 +6971,20 @@
       <c r="Y50" s="18"/>
     </row>
     <row r="51" spans="2:26" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="271" t="s">
+      <c r="B51" s="224" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="272"/>
-      <c r="D51" s="277">
+      <c r="C51" s="225"/>
+      <c r="D51" s="172">
         <v>45709</v>
       </c>
-      <c r="E51" s="277">
+      <c r="E51" s="172">
         <v>45723</v>
       </c>
-      <c r="F51" s="275" t="s">
+      <c r="F51" s="170" t="s">
         <v>222</v>
       </c>
-      <c r="G51" s="270"/>
+      <c r="G51" s="169"/>
       <c r="H51" s="20"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -7005,20 +7005,20 @@
       <c r="Y51" s="18"/>
     </row>
     <row r="52" spans="2:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="271" t="s">
+      <c r="B52" s="224" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="272"/>
-      <c r="D52" s="277">
+      <c r="C52" s="225"/>
+      <c r="D52" s="172">
         <v>45709</v>
       </c>
-      <c r="E52" s="277">
+      <c r="E52" s="172">
         <v>45723</v>
       </c>
-      <c r="F52" s="275" t="s">
+      <c r="F52" s="170" t="s">
         <v>223</v>
       </c>
-      <c r="G52" s="270"/>
+      <c r="G52" s="169"/>
       <c r="H52" s="20"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -7039,20 +7039,20 @@
       <c r="Y52" s="18"/>
     </row>
     <row r="53" spans="2:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="271" t="s">
+      <c r="B53" s="224" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="272"/>
-      <c r="D53" s="277">
+      <c r="C53" s="225"/>
+      <c r="D53" s="172">
         <v>45709</v>
       </c>
-      <c r="E53" s="277">
+      <c r="E53" s="172">
         <v>45723</v>
       </c>
-      <c r="F53" s="275" t="s">
+      <c r="F53" s="170" t="s">
         <v>224</v>
       </c>
-      <c r="G53" s="270"/>
+      <c r="G53" s="169"/>
       <c r="H53" s="20"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
@@ -7073,20 +7073,20 @@
       <c r="Y53" s="18"/>
     </row>
     <row r="54" spans="2:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="271" t="s">
+      <c r="B54" s="224" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="272"/>
-      <c r="D54" s="277">
+      <c r="C54" s="225"/>
+      <c r="D54" s="172">
         <v>45709</v>
       </c>
-      <c r="E54" s="277">
+      <c r="E54" s="172">
         <v>45723</v>
       </c>
-      <c r="F54" s="275" t="s">
+      <c r="F54" s="170" t="s">
         <v>229</v>
       </c>
-      <c r="G54" s="270"/>
+      <c r="G54" s="169"/>
       <c r="H54" s="20"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
@@ -7161,14 +7161,14 @@
       <c r="Y56" s="22"/>
     </row>
     <row r="57" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="214" t="s">
+      <c r="B57" s="242" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="215"/>
-      <c r="D57" s="215"/>
-      <c r="E57" s="215"/>
-      <c r="F57" s="215"/>
-      <c r="G57" s="216"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="244"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
@@ -7340,10 +7340,10 @@
       <c r="Z62" s="18"/>
     </row>
     <row r="63" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="263" t="s">
+      <c r="B63" s="162" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="264">
+      <c r="C63" s="163">
         <v>1</v>
       </c>
       <c r="D63" s="108"/>
@@ -7483,7 +7483,7 @@
       <c r="B68" s="33"/>
       <c r="C68" s="34"/>
       <c r="D68" s="33"/>
-      <c r="F68" s="278">
+      <c r="F68" s="173">
         <v>45724</v>
       </c>
       <c r="G68" s="18"/>
@@ -7508,11 +7508,11 @@
       <c r="Z68" s="18"/>
     </row>
     <row r="69" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="213" t="s">
+      <c r="B69" s="241" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="213"/>
-      <c r="D69" s="213"/>
+      <c r="C69" s="241"/>
+      <c r="D69" s="241"/>
       <c r="F69" s="19" t="s">
         <v>91</v>
       </c>
@@ -7621,10 +7621,10 @@
         <v>93</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="F73" s="213" t="s">
+      <c r="F73" s="241" t="s">
         <v>154</v>
       </c>
-      <c r="G73" s="213"/>
+      <c r="G73" s="241"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
@@ -7702,14 +7702,14 @@
       <c r="Z75" s="18"/>
     </row>
     <row r="76" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="202" t="s">
+      <c r="B76" s="230" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="203"/>
-      <c r="D76" s="203"/>
-      <c r="E76" s="203"/>
-      <c r="F76" s="203"/>
-      <c r="G76" s="204"/>
+      <c r="C76" s="231"/>
+      <c r="D76" s="231"/>
+      <c r="E76" s="231"/>
+      <c r="F76" s="231"/>
+      <c r="G76" s="232"/>
       <c r="H76" s="10"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -7731,14 +7731,14 @@
       <c r="Z76" s="9"/>
     </row>
     <row r="77" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="205" t="s">
+      <c r="B77" s="233" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="206"/>
-      <c r="D77" s="206"/>
-      <c r="E77" s="206"/>
-      <c r="F77" s="206"/>
-      <c r="G77" s="207"/>
+      <c r="C77" s="234"/>
+      <c r="D77" s="234"/>
+      <c r="E77" s="234"/>
+      <c r="F77" s="234"/>
+      <c r="G77" s="235"/>
       <c r="H77" s="10"/>
       <c r="I77" s="40"/>
       <c r="J77" s="9"/>
@@ -7790,21 +7790,7 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B77:G77"/>
@@ -7821,7 +7807,21 @@
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1"/>
@@ -7953,124 +7953,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="276" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220" t="s">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="276"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="228" t="s">
+      <c r="A2" s="276"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="256" t="s">
         <v>160</v>
       </c>
-      <c r="V2" s="228"/>
-      <c r="W2" s="228"/>
-      <c r="X2" s="228"/>
+      <c r="V2" s="256"/>
+      <c r="W2" s="256"/>
+      <c r="X2" s="256"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="283"/>
+      <c r="W3" s="283"/>
+      <c r="X3" s="283"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="280" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="226"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="226"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="225" t="s">
+      <c r="B4" s="281"/>
+      <c r="C4" s="281"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="281"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="280" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
-      <c r="W4" s="226"/>
-      <c r="X4" s="227"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="281"/>
+      <c r="S4" s="281"/>
+      <c r="T4" s="281"/>
+      <c r="U4" s="281"/>
+      <c r="V4" s="281"/>
+      <c r="W4" s="281"/>
+      <c r="X4" s="282"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="222"/>
-      <c r="B5" s="223"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="222"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="223"/>
-      <c r="Q5" s="223"/>
-      <c r="R5" s="223"/>
-      <c r="S5" s="223"/>
-      <c r="T5" s="223"/>
-      <c r="U5" s="223"/>
-      <c r="V5" s="223"/>
-      <c r="W5" s="223"/>
-      <c r="X5" s="224"/>
+      <c r="A5" s="277"/>
+      <c r="B5" s="278"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="278"/>
+      <c r="E5" s="278"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="279"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="278"/>
+      <c r="P5" s="278"/>
+      <c r="Q5" s="278"/>
+      <c r="R5" s="278"/>
+      <c r="S5" s="278"/>
+      <c r="T5" s="278"/>
+      <c r="U5" s="278"/>
+      <c r="V5" s="278"/>
+      <c r="W5" s="278"/>
+      <c r="X5" s="279"/>
     </row>
     <row r="6" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -8099,66 +8099,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="221" t="s">
+      <c r="A7" s="254" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="221"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221" t="s">
+      <c r="B7" s="254"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="221"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="221"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221" t="s">
+      <c r="K7" s="254"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="254"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="254"/>
+      <c r="P7" s="254" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="221"/>
-      <c r="S7" s="221"/>
-      <c r="T7" s="221"/>
-      <c r="U7" s="221"/>
-      <c r="V7" s="221"/>
-      <c r="W7" s="221"/>
-      <c r="X7" s="221"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="254"/>
+      <c r="S7" s="254"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="254"/>
+      <c r="W7" s="254"/>
+      <c r="X7" s="254"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="230"/>
-      <c r="B8" s="230"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231" t="s">
+      <c r="A8" s="261"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="232"/>
-      <c r="L8" s="232"/>
-      <c r="M8" s="232"/>
-      <c r="N8" s="232"/>
-      <c r="O8" s="233"/>
-      <c r="P8" s="231" t="s">
+      <c r="K8" s="263"/>
+      <c r="L8" s="263"/>
+      <c r="M8" s="263"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="262" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="232"/>
-      <c r="R8" s="232"/>
-      <c r="S8" s="232"/>
-      <c r="T8" s="232"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="232"/>
-      <c r="W8" s="232"/>
-      <c r="X8" s="233"/>
+      <c r="Q8" s="263"/>
+      <c r="R8" s="263"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263"/>
+      <c r="U8" s="263"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="264"/>
     </row>
     <row r="9" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -8187,66 +8187,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="274" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="234"/>
-      <c r="Q10" s="234"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="234"/>
+      <c r="B10" s="274"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="274"/>
+      <c r="E10" s="274"/>
+      <c r="F10" s="274"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="274"/>
+      <c r="J10" s="274"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="274"/>
+      <c r="M10" s="274"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="274"/>
+      <c r="Q10" s="274"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="274"/>
+      <c r="T10" s="274"/>
+      <c r="U10" s="274"/>
+      <c r="V10" s="274"/>
+      <c r="W10" s="274"/>
+      <c r="X10" s="274"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="235" t="s">
+      <c r="A11" s="275" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235" t="s">
+      <c r="B11" s="275"/>
+      <c r="C11" s="275"/>
+      <c r="D11" s="275"/>
+      <c r="E11" s="275"/>
+      <c r="F11" s="275"/>
+      <c r="G11" s="275" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="235"/>
-      <c r="I11" s="235"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="235"/>
-      <c r="M11" s="235" t="s">
+      <c r="H11" s="275"/>
+      <c r="I11" s="275"/>
+      <c r="J11" s="275"/>
+      <c r="K11" s="275"/>
+      <c r="L11" s="275"/>
+      <c r="M11" s="275" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="235"/>
-      <c r="O11" s="235"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="235"/>
-      <c r="R11" s="235"/>
-      <c r="S11" s="235" t="s">
+      <c r="N11" s="275"/>
+      <c r="O11" s="275"/>
+      <c r="P11" s="275"/>
+      <c r="Q11" s="275"/>
+      <c r="R11" s="275"/>
+      <c r="S11" s="275" t="s">
         <v>169</v>
       </c>
-      <c r="T11" s="235"/>
-      <c r="U11" s="235"/>
-      <c r="V11" s="235"/>
-      <c r="W11" s="235"/>
-      <c r="X11" s="235"/>
+      <c r="T11" s="275"/>
+      <c r="U11" s="275"/>
+      <c r="V11" s="275"/>
+      <c r="W11" s="275"/>
+      <c r="X11" s="275"/>
     </row>
     <row r="12" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -8275,66 +8275,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="254" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="221"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="221"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221" t="s">
+      <c r="B13" s="254"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="221"/>
-      <c r="P13" s="221" t="s">
+      <c r="K13" s="254"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="254"/>
+      <c r="N13" s="254"/>
+      <c r="O13" s="254"/>
+      <c r="P13" s="254" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="221"/>
-      <c r="R13" s="221"/>
-      <c r="S13" s="221"/>
-      <c r="T13" s="221"/>
-      <c r="U13" s="221"/>
-      <c r="V13" s="221"/>
-      <c r="W13" s="221"/>
-      <c r="X13" s="221"/>
+      <c r="Q13" s="254"/>
+      <c r="R13" s="254"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="254"/>
+      <c r="W13" s="254"/>
+      <c r="X13" s="254"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="230"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="231" t="s">
+      <c r="A14" s="261"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="261"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="233"/>
-      <c r="P14" s="231" t="s">
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="264"/>
+      <c r="P14" s="262" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="232"/>
-      <c r="R14" s="232"/>
-      <c r="S14" s="232"/>
-      <c r="T14" s="232"/>
-      <c r="U14" s="232"/>
-      <c r="V14" s="232"/>
-      <c r="W14" s="232"/>
-      <c r="X14" s="233"/>
+      <c r="Q14" s="263"/>
+      <c r="R14" s="263"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="263"/>
+      <c r="U14" s="263"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="263"/>
+      <c r="X14" s="264"/>
     </row>
     <row r="15" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -8363,98 +8363,98 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="265" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="242" t="s">
+      <c r="B16" s="265"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="265"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="265"/>
+      <c r="G16" s="265"/>
+      <c r="H16" s="265"/>
+      <c r="I16" s="265"/>
+      <c r="J16" s="266" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="242"/>
-      <c r="L16" s="242"/>
-      <c r="M16" s="242"/>
-      <c r="N16" s="241" t="s">
+      <c r="K16" s="266"/>
+      <c r="L16" s="266"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="265" t="s">
         <v>175</v>
       </c>
-      <c r="O16" s="241"/>
-      <c r="P16" s="241"/>
-      <c r="Q16" s="241"/>
-      <c r="R16" s="241"/>
-      <c r="S16" s="241"/>
-      <c r="T16" s="243" t="s">
+      <c r="O16" s="265"/>
+      <c r="P16" s="265"/>
+      <c r="Q16" s="265"/>
+      <c r="R16" s="265"/>
+      <c r="S16" s="265"/>
+      <c r="T16" s="267" t="s">
         <v>176</v>
       </c>
-      <c r="U16" s="243"/>
-      <c r="V16" s="243"/>
-      <c r="W16" s="243"/>
-      <c r="X16" s="243"/>
+      <c r="U16" s="267"/>
+      <c r="V16" s="267"/>
+      <c r="W16" s="267"/>
+      <c r="X16" s="267"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="236" t="s">
+      <c r="A17" s="255" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="228"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="237"/>
-      <c r="J17" s="244" t="s">
+      <c r="B17" s="256"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="257"/>
+      <c r="J17" s="268" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="245"/>
-      <c r="L17" s="245"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="236" t="s">
+      <c r="K17" s="269"/>
+      <c r="L17" s="269"/>
+      <c r="M17" s="270"/>
+      <c r="N17" s="255" t="s">
         <v>179</v>
       </c>
-      <c r="O17" s="228"/>
-      <c r="P17" s="228"/>
-      <c r="Q17" s="228"/>
-      <c r="R17" s="228"/>
-      <c r="S17" s="237"/>
-      <c r="T17" s="236" t="s">
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="256"/>
+      <c r="S17" s="257"/>
+      <c r="T17" s="255" t="s">
         <v>180</v>
       </c>
-      <c r="U17" s="228"/>
-      <c r="V17" s="228"/>
-      <c r="W17" s="228"/>
-      <c r="X17" s="237"/>
+      <c r="U17" s="256"/>
+      <c r="V17" s="256"/>
+      <c r="W17" s="256"/>
+      <c r="X17" s="257"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="238"/>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="240"/>
-      <c r="J18" s="247"/>
-      <c r="K18" s="248"/>
-      <c r="L18" s="248"/>
-      <c r="M18" s="249"/>
-      <c r="N18" s="238"/>
-      <c r="O18" s="239"/>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="239"/>
-      <c r="R18" s="239"/>
-      <c r="S18" s="240"/>
-      <c r="T18" s="238"/>
-      <c r="U18" s="239"/>
-      <c r="V18" s="239"/>
-      <c r="W18" s="239"/>
-      <c r="X18" s="240"/>
+      <c r="A18" s="258"/>
+      <c r="B18" s="259"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="259"/>
+      <c r="G18" s="259"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="271"/>
+      <c r="K18" s="272"/>
+      <c r="L18" s="272"/>
+      <c r="M18" s="273"/>
+      <c r="N18" s="258"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="259"/>
+      <c r="R18" s="259"/>
+      <c r="S18" s="260"/>
+      <c r="T18" s="258"/>
+      <c r="U18" s="259"/>
+      <c r="V18" s="259"/>
+      <c r="W18" s="259"/>
+      <c r="X18" s="260"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8522,13 +8522,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -8543,25 +8555,13 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/Bitácoras_excel/Bitácora_9.xlsx
+++ b/Bitácoras_excel/Bitácora_9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="8448" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9720" windowHeight="8448" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -3354,6 +3354,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -3387,18 +3480,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -3408,85 +3489,70 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3501,71 +3567,95 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -3578,96 +3668,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3710,7 +3710,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3944,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E00CC92-0015-4CE3-A33B-B1A9AF53B1A4}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4774,56 +4774,56 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="191"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="212"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="209"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="185"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4835,45 +4835,45 @@
       <c r="C8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="216" t="s">
+      <c r="D8" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="217"/>
+      <c r="E8" s="193"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="218" t="s">
+      <c r="B9" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="220"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="196"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="223"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="199"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="202"/>
     </row>
     <row r="12" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="190" t="s">
+      <c r="B12" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="193"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="182"/>
       <c r="F12" s="1"/>
       <c r="G12" s="39"/>
     </row>
@@ -4884,84 +4884,84 @@
       <c r="E13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="183"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="214"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="186"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="217"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="186"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="217"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="196"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="223"/>
     </row>
     <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="186"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="217"/>
     </row>
     <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="186"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="217"/>
     </row>
     <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="187" t="s">
+      <c r="B20" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="189"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="220"/>
     </row>
     <row r="21" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="193"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="182"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="199" t="s">
+      <c r="B22" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="D22" s="200" t="s">
+      <c r="C22" s="201"/>
+      <c r="D22" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="201"/>
+      <c r="E22" s="202"/>
     </row>
     <row r="23" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="202"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="205"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
@@ -4970,10 +4970,10 @@
       <c r="C24" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="205" t="s">
+      <c r="D24" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="206"/>
+      <c r="E24" s="207"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -4983,8 +4983,8 @@
       <c r="C25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="198"/>
+      <c r="D25" s="208"/>
+      <c r="E25" s="209"/>
     </row>
     <row r="26" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="65" t="s">
@@ -4993,8 +4993,8 @@
       <c r="C26" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="198"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="209"/>
     </row>
     <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="67" t="s">
@@ -5003,8 +5003,8 @@
       <c r="C27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="197"/>
-      <c r="E27" s="198"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="209"/>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="77" t="s">
@@ -5013,8 +5013,8 @@
       <c r="C28" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="197"/>
-      <c r="E28" s="198"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="209"/>
     </row>
     <row r="29" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="77" t="s">
@@ -5023,10 +5023,10 @@
       <c r="C29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="197" t="s">
+      <c r="D29" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="198" t="s">
+      <c r="E29" s="209" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5037,10 +5037,10 @@
       <c r="C30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="197" t="s">
+      <c r="D30" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="198" t="s">
+      <c r="E30" s="209" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5051,8 +5051,8 @@
       <c r="C31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="209"/>
     </row>
     <row r="32" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="77" t="s">
@@ -5061,10 +5061,10 @@
       <c r="C32" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="197" t="s">
+      <c r="D32" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="198" t="s">
+      <c r="E32" s="209" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5075,8 +5075,8 @@
       <c r="C33" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="198"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="209"/>
     </row>
     <row r="34" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="77" t="s">
@@ -5085,8 +5085,8 @@
       <c r="C34" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="209"/>
     </row>
     <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B35" s="77" t="s">
@@ -5095,8 +5095,8 @@
       <c r="C35" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="197"/>
-      <c r="E35" s="198"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="209"/>
     </row>
     <row r="36" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="77" t="s">
@@ -5105,8 +5105,8 @@
       <c r="C36" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="197"/>
-      <c r="E36" s="198"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="209"/>
     </row>
     <row r="37" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="77" t="s">
@@ -5115,8 +5115,8 @@
       <c r="C37" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="197"/>
-      <c r="E37" s="198"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="209"/>
     </row>
     <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B38" s="77" t="s">
@@ -5125,8 +5125,8 @@
       <c r="C38" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="197"/>
-      <c r="E38" s="198"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="209"/>
     </row>
     <row r="39" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B39" s="77" t="s">
@@ -5135,8 +5135,8 @@
       <c r="C39" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="197"/>
-      <c r="E39" s="198"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="209"/>
     </row>
     <row r="40" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B40" s="77" t="s">
@@ -5145,8 +5145,8 @@
       <c r="C40" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="198"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="209"/>
     </row>
     <row r="41" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B41" s="77" t="s">
@@ -5155,8 +5155,8 @@
       <c r="C41" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="197"/>
-      <c r="E41" s="198"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="209"/>
     </row>
     <row r="42" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B42" s="77" t="s">
@@ -5165,8 +5165,8 @@
       <c r="C42" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="197"/>
-      <c r="E42" s="198"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
     </row>
     <row r="43" spans="2:5" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B43" s="77" t="s">
@@ -5175,10 +5175,10 @@
       <c r="C43" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="197" t="s">
+      <c r="D43" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="198" t="s">
+      <c r="E43" s="209" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5189,8 +5189,8 @@
       <c r="C44" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="197"/>
-      <c r="E44" s="198"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
     </row>
     <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="77" t="s">
@@ -5199,8 +5199,8 @@
       <c r="C45" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="197"/>
-      <c r="E45" s="198"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
     </row>
     <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="77" t="s">
@@ -5209,8 +5209,8 @@
       <c r="C46" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="197"/>
-      <c r="E46" s="198"/>
+      <c r="D46" s="208"/>
+      <c r="E46" s="209"/>
     </row>
     <row r="47" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="77" t="s">
@@ -5219,10 +5219,10 @@
       <c r="C47" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="197" t="s">
+      <c r="D47" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="198" t="s">
+      <c r="E47" s="209" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5233,8 +5233,8 @@
       <c r="C48" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="197"/>
-      <c r="E48" s="198"/>
+      <c r="D48" s="208"/>
+      <c r="E48" s="209"/>
     </row>
     <row r="49" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="77" t="s">
@@ -5243,10 +5243,10 @@
       <c r="C49" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="197" t="s">
+      <c r="D49" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="198" t="s">
+      <c r="E49" s="209" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5257,10 +5257,10 @@
       <c r="C50" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="197" t="s">
+      <c r="D50" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="198" t="s">
+      <c r="E50" s="209" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5271,10 +5271,10 @@
       <c r="C51" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="197" t="s">
+      <c r="D51" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="198" t="s">
+      <c r="E51" s="209" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5285,8 +5285,8 @@
       <c r="C52" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="197"/>
-      <c r="E52" s="198"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
     </row>
     <row r="53" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B53" s="77" t="s">
@@ -5295,8 +5295,8 @@
       <c r="C53" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="197"/>
-      <c r="E53" s="198"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
     </row>
     <row r="54" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B54" s="77" t="s">
@@ -5305,8 +5305,8 @@
       <c r="C54" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="197"/>
-      <c r="E54" s="198"/>
+      <c r="D54" s="208"/>
+      <c r="E54" s="209"/>
     </row>
     <row r="55" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B55" s="77" t="s">
@@ -5315,8 +5315,8 @@
       <c r="C55" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="197"/>
-      <c r="E55" s="198"/>
+      <c r="D55" s="208"/>
+      <c r="E55" s="209"/>
     </row>
     <row r="56" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B56" s="78" t="s">
@@ -5325,8 +5325,8 @@
       <c r="C56" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="197"/>
-      <c r="E56" s="198"/>
+      <c r="D56" s="208"/>
+      <c r="E56" s="209"/>
     </row>
     <row r="57" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="79" t="s">
@@ -5335,10 +5335,10 @@
       <c r="C57" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="179" t="s">
+      <c r="D57" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="180" t="s">
+      <c r="E57" s="211" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5356,44 +5356,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B19:E19"/>
@@ -5410,6 +5372,44 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5421,8 +5421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5504,14 +5504,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="209"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -5533,14 +5533,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5562,14 +5562,14 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
@@ -5591,14 +5591,14 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="212"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
@@ -5620,14 +5620,14 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="185"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5828,11 +5828,11 @@
       </c>
       <c r="C14" s="117"/>
       <c r="D14" s="117"/>
-      <c r="E14" s="245" t="s">
+      <c r="E14" s="243" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="246"/>
-      <c r="G14" s="247"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="245"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5878,10 +5878,10 @@
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="2:26" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="224" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="249"/>
+      <c r="C16" s="225"/>
       <c r="D16" s="125" t="s">
         <v>47</v>
       </c>
@@ -5904,10 +5904,10 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="226" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="229"/>
+      <c r="C17" s="227"/>
       <c r="D17" s="128" t="s">
         <v>193</v>
       </c>
@@ -5987,10 +5987,10 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="226" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="229"/>
+      <c r="C20" s="227"/>
       <c r="D20" s="160" t="s">
         <v>196</v>
       </c>
@@ -6042,14 +6042,14 @@
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="236" t="s">
+      <c r="B22" s="234" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="237"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="237"/>
-      <c r="F22" s="237"/>
-      <c r="G22" s="238"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="235"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="236"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -6228,10 +6228,10 @@
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="239" t="s">
+      <c r="F28" s="237" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="240"/>
+      <c r="G28" s="238"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
@@ -6258,8 +6258,8 @@
       <c r="E29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="239"/>
-      <c r="G29" s="240"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="238"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
@@ -6597,10 +6597,10 @@
       <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="2:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="226" t="s">
+      <c r="B40" s="248" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="227"/>
+      <c r="C40" s="249"/>
       <c r="D40" s="171">
         <v>45709</v>
       </c>
@@ -6631,10 +6631,10 @@
       <c r="Y40" s="18"/>
     </row>
     <row r="41" spans="2:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="226" t="s">
+      <c r="B41" s="248" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="227"/>
+      <c r="C41" s="249"/>
       <c r="D41" s="172">
         <v>45709</v>
       </c>
@@ -6665,10 +6665,10 @@
       <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="2:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="224" t="s">
+      <c r="B42" s="246" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="225"/>
+      <c r="C42" s="247"/>
       <c r="D42" s="172">
         <v>45709</v>
       </c>
@@ -6699,10 +6699,10 @@
       <c r="Y42" s="18"/>
     </row>
     <row r="43" spans="2:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="226" t="s">
+      <c r="B43" s="248" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="227"/>
+      <c r="C43" s="249"/>
       <c r="D43" s="172">
         <v>45709</v>
       </c>
@@ -6733,10 +6733,10 @@
       <c r="Y43" s="18"/>
     </row>
     <row r="44" spans="2:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="226" t="s">
+      <c r="B44" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="227"/>
+      <c r="C44" s="249"/>
       <c r="D44" s="172">
         <v>45709</v>
       </c>
@@ -6767,10 +6767,10 @@
       <c r="Y44" s="18"/>
     </row>
     <row r="45" spans="2:26" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="224" t="s">
+      <c r="B45" s="246" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="225"/>
+      <c r="C45" s="247"/>
       <c r="D45" s="172">
         <v>45709</v>
       </c>
@@ -6801,10 +6801,10 @@
       <c r="Y45" s="18"/>
     </row>
     <row r="46" spans="2:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="224" t="s">
+      <c r="B46" s="246" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="225"/>
+      <c r="C46" s="247"/>
       <c r="D46" s="172">
         <v>45709</v>
       </c>
@@ -6835,10 +6835,10 @@
       <c r="Y46" s="18"/>
     </row>
     <row r="47" spans="2:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="226" t="s">
+      <c r="B47" s="248" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="227"/>
+      <c r="C47" s="249"/>
       <c r="D47" s="172">
         <v>45709</v>
       </c>
@@ -6869,10 +6869,10 @@
       <c r="Y47" s="18"/>
     </row>
     <row r="48" spans="2:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="226" t="s">
+      <c r="B48" s="248" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="227"/>
+      <c r="C48" s="249"/>
       <c r="D48" s="172">
         <v>45709</v>
       </c>
@@ -6903,10 +6903,10 @@
       <c r="Y48" s="18"/>
     </row>
     <row r="49" spans="2:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="224" t="s">
+      <c r="B49" s="246" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="225"/>
+      <c r="C49" s="247"/>
       <c r="D49" s="172">
         <v>45709</v>
       </c>
@@ -6937,10 +6937,10 @@
       <c r="Y49" s="18"/>
     </row>
     <row r="50" spans="2:26" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="224" t="s">
+      <c r="B50" s="246" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="225"/>
+      <c r="C50" s="247"/>
       <c r="D50" s="172">
         <v>45709</v>
       </c>
@@ -6971,10 +6971,10 @@
       <c r="Y50" s="18"/>
     </row>
     <row r="51" spans="2:26" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="224" t="s">
+      <c r="B51" s="246" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="225"/>
+      <c r="C51" s="247"/>
       <c r="D51" s="172">
         <v>45709</v>
       </c>
@@ -7005,10 +7005,10 @@
       <c r="Y51" s="18"/>
     </row>
     <row r="52" spans="2:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="224" t="s">
+      <c r="B52" s="246" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="225"/>
+      <c r="C52" s="247"/>
       <c r="D52" s="172">
         <v>45709</v>
       </c>
@@ -7039,10 +7039,10 @@
       <c r="Y52" s="18"/>
     </row>
     <row r="53" spans="2:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="224" t="s">
+      <c r="B53" s="246" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="225"/>
+      <c r="C53" s="247"/>
       <c r="D53" s="172">
         <v>45709</v>
       </c>
@@ -7073,10 +7073,10 @@
       <c r="Y53" s="18"/>
     </row>
     <row r="54" spans="2:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="224" t="s">
+      <c r="B54" s="246" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="225"/>
+      <c r="C54" s="247"/>
       <c r="D54" s="172">
         <v>45709</v>
       </c>
@@ -7161,14 +7161,14 @@
       <c r="Y56" s="22"/>
     </row>
     <row r="57" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="242" t="s">
+      <c r="B57" s="240" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="243"/>
-      <c r="D57" s="243"/>
-      <c r="E57" s="243"/>
-      <c r="F57" s="243"/>
-      <c r="G57" s="244"/>
+      <c r="C57" s="241"/>
+      <c r="D57" s="241"/>
+      <c r="E57" s="241"/>
+      <c r="F57" s="241"/>
+      <c r="G57" s="242"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
@@ -7508,11 +7508,11 @@
       <c r="Z68" s="18"/>
     </row>
     <row r="69" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="241" t="s">
+      <c r="B69" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="241"/>
-      <c r="D69" s="241"/>
+      <c r="C69" s="239"/>
+      <c r="D69" s="239"/>
       <c r="F69" s="19" t="s">
         <v>91</v>
       </c>
@@ -7621,10 +7621,10 @@
         <v>93</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="F73" s="241" t="s">
+      <c r="F73" s="239" t="s">
         <v>154</v>
       </c>
-      <c r="G73" s="241"/>
+      <c r="G73" s="239"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
@@ -7702,14 +7702,14 @@
       <c r="Z75" s="18"/>
     </row>
     <row r="76" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="230" t="s">
+      <c r="B76" s="228" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="231"/>
-      <c r="D76" s="231"/>
-      <c r="E76" s="231"/>
-      <c r="F76" s="231"/>
-      <c r="G76" s="232"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="229"/>
+      <c r="E76" s="229"/>
+      <c r="F76" s="229"/>
+      <c r="G76" s="230"/>
       <c r="H76" s="10"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -7731,14 +7731,14 @@
       <c r="Z76" s="9"/>
     </row>
     <row r="77" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="233" t="s">
+      <c r="B77" s="231" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="234"/>
-      <c r="D77" s="234"/>
-      <c r="E77" s="234"/>
-      <c r="F77" s="234"/>
-      <c r="G77" s="235"/>
+      <c r="C77" s="232"/>
+      <c r="D77" s="232"/>
+      <c r="E77" s="232"/>
+      <c r="F77" s="232"/>
+      <c r="G77" s="233"/>
       <c r="H77" s="10"/>
       <c r="I77" s="40"/>
       <c r="J77" s="9"/>
@@ -7790,21 +7790,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B57:G57"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B53:C53"/>
@@ -7821,6 +7806,21 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B57:G57"/>
     <mergeCell ref="B52:C52"/>
   </mergeCells>
   <hyperlinks>
@@ -7953,124 +7953,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
-      <c r="Q1" s="276"/>
-      <c r="R1" s="276"/>
-      <c r="S1" s="276"/>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="250"/>
+      <c r="T1" s="250"/>
+      <c r="U1" s="250" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
+      <c r="V1" s="250"/>
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="276"/>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="276"/>
-      <c r="T2" s="276"/>
-      <c r="U2" s="256" t="s">
+      <c r="A2" s="250"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="258" t="s">
         <v>160</v>
       </c>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="258"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U3" s="283"/>
-      <c r="V3" s="283"/>
-      <c r="W3" s="283"/>
-      <c r="X3" s="283"/>
+      <c r="U3" s="259"/>
+      <c r="V3" s="259"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="259"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="255" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="280" t="s">
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="257"/>
+      <c r="N4" s="255" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="281"/>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="281"/>
-      <c r="S4" s="281"/>
-      <c r="T4" s="281"/>
-      <c r="U4" s="281"/>
-      <c r="V4" s="281"/>
-      <c r="W4" s="281"/>
-      <c r="X4" s="282"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="256"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="256"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="257"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="277"/>
-      <c r="B5" s="278"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="279"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="278"/>
-      <c r="P5" s="278"/>
-      <c r="Q5" s="278"/>
-      <c r="R5" s="278"/>
-      <c r="S5" s="278"/>
-      <c r="T5" s="278"/>
-      <c r="U5" s="278"/>
-      <c r="V5" s="278"/>
-      <c r="W5" s="278"/>
-      <c r="X5" s="279"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="253"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="254"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
+      <c r="U5" s="253"/>
+      <c r="V5" s="253"/>
+      <c r="W5" s="253"/>
+      <c r="X5" s="254"/>
     </row>
     <row r="6" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -8099,66 +8099,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="254" t="s">
+      <c r="A7" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="254"/>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="254" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="251" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="254"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="254"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="254"/>
-      <c r="P7" s="254" t="s">
+      <c r="K7" s="251"/>
+      <c r="L7" s="251"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="251" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="254"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="254"/>
-      <c r="W7" s="254"/>
-      <c r="X7" s="254"/>
+      <c r="Q7" s="251"/>
+      <c r="R7" s="251"/>
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="251"/>
+      <c r="W7" s="251"/>
+      <c r="X7" s="251"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="261"/>
-      <c r="B8" s="261"/>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="261"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="262" t="s">
+      <c r="A8" s="260"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="261" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="263"/>
-      <c r="L8" s="263"/>
-      <c r="M8" s="263"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="264"/>
-      <c r="P8" s="262" t="s">
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="263"/>
+      <c r="P8" s="261" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="264"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="262"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="263"/>
     </row>
     <row r="9" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -8187,66 +8187,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="274" t="s">
+      <c r="A10" s="264" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="274"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="274"/>
-      <c r="E10" s="274"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="274"/>
-      <c r="J10" s="274"/>
-      <c r="K10" s="274"/>
-      <c r="L10" s="274"/>
-      <c r="M10" s="274"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="274"/>
-      <c r="Q10" s="274"/>
-      <c r="R10" s="274"/>
-      <c r="S10" s="274"/>
-      <c r="T10" s="274"/>
-      <c r="U10" s="274"/>
-      <c r="V10" s="274"/>
-      <c r="W10" s="274"/>
-      <c r="X10" s="274"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="264"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="264"/>
+      <c r="J10" s="264"/>
+      <c r="K10" s="264"/>
+      <c r="L10" s="264"/>
+      <c r="M10" s="264"/>
+      <c r="N10" s="264"/>
+      <c r="O10" s="264"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="264"/>
+      <c r="R10" s="264"/>
+      <c r="S10" s="264"/>
+      <c r="T10" s="264"/>
+      <c r="U10" s="264"/>
+      <c r="V10" s="264"/>
+      <c r="W10" s="264"/>
+      <c r="X10" s="264"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="275" t="s">
+      <c r="A11" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="275"/>
-      <c r="C11" s="275"/>
-      <c r="D11" s="275"/>
-      <c r="E11" s="275"/>
-      <c r="F11" s="275"/>
-      <c r="G11" s="275" t="s">
+      <c r="B11" s="265"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="275"/>
-      <c r="I11" s="275"/>
-      <c r="J11" s="275"/>
-      <c r="K11" s="275"/>
-      <c r="L11" s="275"/>
-      <c r="M11" s="275" t="s">
+      <c r="H11" s="265"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="265"/>
+      <c r="L11" s="265"/>
+      <c r="M11" s="265" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="275"/>
-      <c r="O11" s="275"/>
-      <c r="P11" s="275"/>
-      <c r="Q11" s="275"/>
-      <c r="R11" s="275"/>
-      <c r="S11" s="275" t="s">
+      <c r="N11" s="265"/>
+      <c r="O11" s="265"/>
+      <c r="P11" s="265"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="265"/>
+      <c r="S11" s="265" t="s">
         <v>169</v>
       </c>
-      <c r="T11" s="275"/>
-      <c r="U11" s="275"/>
-      <c r="V11" s="275"/>
-      <c r="W11" s="275"/>
-      <c r="X11" s="275"/>
+      <c r="T11" s="265"/>
+      <c r="U11" s="265"/>
+      <c r="V11" s="265"/>
+      <c r="W11" s="265"/>
+      <c r="X11" s="265"/>
     </row>
     <row r="12" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -8275,66 +8275,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="254" t="s">
+      <c r="A13" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="254"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="254" t="s">
+      <c r="B13" s="251"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="254"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="254"/>
-      <c r="N13" s="254"/>
-      <c r="O13" s="254"/>
-      <c r="P13" s="254" t="s">
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="251" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="254"/>
-      <c r="R13" s="254"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="254"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="254"/>
-      <c r="W13" s="254"/>
-      <c r="X13" s="254"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="251"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="261"/>
-      <c r="B14" s="261"/>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="261"/>
-      <c r="I14" s="261"/>
-      <c r="J14" s="262" t="s">
+      <c r="A14" s="260"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="261" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="263"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="263"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="264"/>
-      <c r="P14" s="262" t="s">
+      <c r="K14" s="262"/>
+      <c r="L14" s="262"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="262"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="261" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="263"/>
-      <c r="R14" s="263"/>
-      <c r="S14" s="263"/>
-      <c r="T14" s="263"/>
-      <c r="U14" s="263"/>
-      <c r="V14" s="263"/>
-      <c r="W14" s="263"/>
-      <c r="X14" s="264"/>
+      <c r="Q14" s="262"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="262"/>
+      <c r="T14" s="262"/>
+      <c r="U14" s="262"/>
+      <c r="V14" s="262"/>
+      <c r="W14" s="262"/>
+      <c r="X14" s="263"/>
     </row>
     <row r="15" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -8363,184 +8363,172 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="265" t="s">
+      <c r="A16" s="271" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="265"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="265"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="265"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="265"/>
-      <c r="I16" s="265"/>
-      <c r="J16" s="266" t="s">
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="272" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="266"/>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="265" t="s">
+      <c r="K16" s="272"/>
+      <c r="L16" s="272"/>
+      <c r="M16" s="272"/>
+      <c r="N16" s="271" t="s">
         <v>175</v>
       </c>
-      <c r="O16" s="265"/>
-      <c r="P16" s="265"/>
-      <c r="Q16" s="265"/>
-      <c r="R16" s="265"/>
-      <c r="S16" s="265"/>
-      <c r="T16" s="267" t="s">
+      <c r="O16" s="271"/>
+      <c r="P16" s="271"/>
+      <c r="Q16" s="271"/>
+      <c r="R16" s="271"/>
+      <c r="S16" s="271"/>
+      <c r="T16" s="273" t="s">
         <v>176</v>
       </c>
-      <c r="U16" s="267"/>
-      <c r="V16" s="267"/>
-      <c r="W16" s="267"/>
-      <c r="X16" s="267"/>
+      <c r="U16" s="273"/>
+      <c r="V16" s="273"/>
+      <c r="W16" s="273"/>
+      <c r="X16" s="273"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="255" t="s">
+      <c r="A17" s="266" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="256"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="268" t="s">
+      <c r="B17" s="258"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="258"/>
+      <c r="F17" s="258"/>
+      <c r="G17" s="258"/>
+      <c r="H17" s="258"/>
+      <c r="I17" s="267"/>
+      <c r="J17" s="274" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="270"/>
-      <c r="N17" s="255" t="s">
+      <c r="K17" s="275"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="276"/>
+      <c r="N17" s="266" t="s">
         <v>179</v>
       </c>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="256"/>
-      <c r="S17" s="257"/>
-      <c r="T17" s="255" t="s">
+      <c r="O17" s="258"/>
+      <c r="P17" s="258"/>
+      <c r="Q17" s="258"/>
+      <c r="R17" s="258"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="266" t="s">
         <v>180</v>
       </c>
-      <c r="U17" s="256"/>
-      <c r="V17" s="256"/>
-      <c r="W17" s="256"/>
-      <c r="X17" s="257"/>
+      <c r="U17" s="258"/>
+      <c r="V17" s="258"/>
+      <c r="W17" s="258"/>
+      <c r="X17" s="267"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="258"/>
-      <c r="B18" s="259"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="259"/>
-      <c r="G18" s="259"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="260"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="272"/>
-      <c r="L18" s="272"/>
-      <c r="M18" s="273"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="259"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="259"/>
-      <c r="R18" s="259"/>
-      <c r="S18" s="260"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="259"/>
-      <c r="V18" s="259"/>
-      <c r="W18" s="259"/>
-      <c r="X18" s="260"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="269"/>
+      <c r="I18" s="270"/>
+      <c r="J18" s="277"/>
+      <c r="K18" s="278"/>
+      <c r="L18" s="278"/>
+      <c r="M18" s="279"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="269"/>
+      <c r="P18" s="269"/>
+      <c r="Q18" s="269"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="270"/>
+      <c r="T18" s="268"/>
+      <c r="U18" s="269"/>
+      <c r="V18" s="269"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="270"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="253" t="s">
+      <c r="A21" s="283" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
-      <c r="H21" s="253"/>
+      <c r="B21" s="283"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="283"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="253" t="s">
+      <c r="J21" s="283" t="s">
         <v>182</v>
       </c>
-      <c r="K21" s="253"/>
-      <c r="L21" s="253"/>
-      <c r="M21" s="253"/>
-      <c r="N21" s="253"/>
-      <c r="O21" s="253"/>
-      <c r="P21" s="253"/>
+      <c r="K21" s="283"/>
+      <c r="L21" s="283"/>
+      <c r="M21" s="283"/>
+      <c r="N21" s="283"/>
+      <c r="O21" s="283"/>
+      <c r="P21" s="283"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="253" t="s">
+      <c r="R21" s="283" t="s">
         <v>183</v>
       </c>
-      <c r="S21" s="253"/>
-      <c r="T21" s="253"/>
-      <c r="U21" s="253"/>
-      <c r="V21" s="253"/>
-      <c r="W21" s="253"/>
-      <c r="X21" s="253"/>
+      <c r="S21" s="283"/>
+      <c r="T21" s="283"/>
+      <c r="U21" s="283"/>
+      <c r="V21" s="283"/>
+      <c r="W21" s="283"/>
+      <c r="X21" s="283"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="250" t="s">
+      <c r="P23" s="280" t="s">
         <v>184</v>
       </c>
-      <c r="Q23" s="250"/>
-      <c r="R23" s="250"/>
-      <c r="S23" s="250"/>
-      <c r="T23" s="250"/>
-      <c r="U23" s="251" t="s">
+      <c r="Q23" s="280"/>
+      <c r="R23" s="280"/>
+      <c r="S23" s="280"/>
+      <c r="T23" s="280"/>
+      <c r="U23" s="281" t="s">
         <v>185</v>
       </c>
-      <c r="V23" s="251"/>
-      <c r="W23" s="251"/>
-      <c r="X23" s="251"/>
+      <c r="V23" s="281"/>
+      <c r="W23" s="281"/>
+      <c r="X23" s="281"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P24" s="250" t="s">
+      <c r="P24" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="250"/>
-      <c r="R24" s="250"/>
-      <c r="S24" s="250"/>
-      <c r="T24" s="250"/>
-      <c r="U24" s="252" t="s">
+      <c r="Q24" s="280"/>
+      <c r="R24" s="280"/>
+      <c r="S24" s="280"/>
+      <c r="T24" s="280"/>
+      <c r="U24" s="282" t="s">
         <v>187</v>
       </c>
-      <c r="V24" s="252"/>
-      <c r="W24" s="252"/>
-      <c r="X24" s="252"/>
+      <c r="V24" s="282"/>
+      <c r="W24" s="282"/>
+      <c r="X24" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -8555,13 +8543,25 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>
